--- a/Data/prisindeks.xlsx
+++ b/Data/prisindeks.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskaslund/Documents/GitHub/SpecialeJR /Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69FB949A-3A71-A049-A7BE-7537BD68F96D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EE92E5-CD84-C940-83E5-29743BDB415F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13980" xr2:uid="{D9BFE4C0-9674-EF41-8D7B-75AEE9DA180A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark2" sheetId="2" r:id="rId1"/>
+    <sheet name="prisindeks" sheetId="2" r:id="rId1"/>
     <sheet name="Ark1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Løbende priser</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Prisindeks_2015</t>
   </si>
 </sst>
 </file>
@@ -1569,23 +1572,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D11A2D2-6765-0E47-A8CF-93988927B2CB}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1593,8 +1599,12 @@
         <f>'Ark1'!E2</f>
         <v>102.99332611959584</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>B2/$B$24</f>
+        <v>0.67522963990364659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1602,8 +1612,12 @@
         <f>'Ark1'!E3</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f t="shared" ref="C3:C27" si="0">B3/$B$24</f>
+        <v>0.65560523710009144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1611,8 +1625,12 @@
         <f>'Ark1'!E4</f>
         <v>102.36945327980682</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.67113949689314478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1620,8 +1638,12 @@
         <f>'Ark1'!E5</f>
         <v>104.44261142722355</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.68473123028097616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1629,8 +1651,12 @@
         <f>'Ark1'!E6</f>
         <v>106.58703424183061</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.69879017855910919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1638,8 +1664,12 @@
         <f>'Ark1'!E7</f>
         <v>109.97277593355427</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.72098727840473076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1647,8 +1677,12 @@
         <f>'Ark1'!E8</f>
         <v>113.01693936882383</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.74094497331224396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1656,8 +1690,12 @@
         <f>'Ark1'!E9</f>
         <v>115.86851847303201</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.75964007525948474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1665,8 +1703,12 @@
         <f>'Ark1'!E10</f>
         <v>119.63743870724848</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.7843493136971329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1674,8 +1716,12 @@
         <f>'Ark1'!E11</f>
         <v>122.49656339449946</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.80309388488197198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1683,8 +1729,12 @@
         <f>'Ark1'!E12</f>
         <v>125.10180142035421</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.82017396181839874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1692,8 +1742,12 @@
         <f>'Ark1'!E13</f>
         <v>127.9801422884608</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.83904451529129775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1701,8 +1755,12 @@
         <f>'Ark1'!E14</f>
         <v>131.23429468564055</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.86037890883042634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1710,8 +1768,12 @@
         <f>'Ark1'!E15</f>
         <v>133.96952386824745</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.8783112145982872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1719,8 +1781,12 @@
         <f>'Ark1'!E16</f>
         <v>137.74791515451403</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.90308254574918445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1728,8 +1794,12 @@
         <f>'Ark1'!E17</f>
         <v>139.52522512798825</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.91473468301478367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1737,8 +1807,12 @@
         <f>'Ark1'!E18</f>
         <v>142.88187228740239</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.93674103758287419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1746,8 +1820,12 @@
         <f>'Ark1'!E19</f>
         <v>147.13896757341681</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.96465077722632586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1755,8 +1833,12 @@
         <f>'Ark1'!E20</f>
         <v>150.38620761325794</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.98593985298873543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1764,8 +1846,12 @@
         <f>'Ark1'!E21</f>
         <v>151.09226946739034</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.99056883148159347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1773,8 +1859,12 @@
         <f>'Ark1'!E22</f>
         <v>152.00263200855093</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.99653721597803979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1782,8 +1872,12 @@
         <f>'Ark1'!E23</f>
         <v>152.38140124319878</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.99902044691691494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1885,12 @@
         <f>'Ark1'!E24</f>
         <v>152.53081327160444</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1800,8 +1898,12 @@
         <f>'Ark1'!E25</f>
         <v>153.4859340141324</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.0062618216086425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1809,14 +1911,22 @@
         <f>'Ark1'!E26</f>
         <v>154.14449262799766</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.0105793663705169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="4">
         <f>'Ark1'!E27</f>
         <v>155.57860427296899</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1.0199814774208114</v>
       </c>
     </row>
   </sheetData>
